--- a/biology/Histoire de la zoologie et de la botanique/Johann_Christoph_Friedrich_Klug/Johann_Christoph_Friedrich_Klug.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Christoph_Friedrich_Klug/Johann_Christoph_Friedrich_Klug.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Christoph Friedrich Klug est un entomologiste allemand, né le 5 mai 1775 à Berlin et mort le 3 février 1856[1] dans cette même ville.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Christoph Friedrich Klug est un entomologiste allemand, né le 5 mai 1775 à Berlin et mort le 3 février 1856 dans cette même ville.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur de médecine et d’entomologie à l’université Frédéric-Guillaume de Berlin. Il y dirige les collections d'insectes de 1810 à 1856. Il dirige également le jardin botanique de Berlin où sont déposées ses collections.
 </t>
@@ -542,14 +556,16 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Monographia siricum Germaniae atque generum illis adnumeratorum, Berlin, F. Schuppel, 1803.
 Die Blattwespen nach ihren Gattungen und Arten zusammengestell, Berlin 1808.
 Entomologische monographieen, Berlin 1824.
 Symbolæ Physicæ, Berlin, 1829-1845, consacré aux papillons de Haute Égypte et d'Arabie.
 Neue Schmetterlinge der Insekten-Sammlung des Königl, Berlin, Zoologischen Musei der Universität zu Berlin, 1836-1856.
-Gesammelte aufsätze über Blattwespen, Berlin, Verlag R. Friedlaender, 1884[2].</t>
+Gesammelte aufsätze über Blattwespen, Berlin, Verlag R. Friedlaender, 1884.</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un papillon, Geitoneura klugii et un genre de plantes  Klugia (en) de la famille des Gesneriaceae ont été nommés en son honneur.
 </t>
